--- a/Mifos Automation Excels/Client/54-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-ONTIME-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/54-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-ONTIME-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="3"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -119,24 +119,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -185,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -202,28 +191,12 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -241,7 +214,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -547,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -581,10 +554,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -595,7 +568,7 @@
     <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -615,8 +588,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
         <v>10000</v>
       </c>
       <c r="B2" s="3">
@@ -633,7 +606,7 @@
         <v>796.37</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>670.55</v>
       </c>
@@ -653,7 +626,7 @@
         <v>92.12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -673,7 +646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -692,41 +665,6 @@
       <c r="F5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-    </row>
-    <row r="8" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-    </row>
-    <row r="9" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-    </row>
-    <row r="11" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="8"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D13" s="13"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -738,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -762,65 +700,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="11">
+      <c r="C2" s="9">
         <v>42005</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>10000</v>
       </c>
       <c r="H2" s="3"/>
@@ -845,13 +783,13 @@
       <c r="B3" s="3">
         <v>31</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="9">
         <v>42036</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="9">
         <v>42036</v>
       </c>
-      <c r="E3" s="23"/>
+      <c r="E3" s="17"/>
       <c r="F3" s="3">
         <v>788.49</v>
       </c>
@@ -890,7 +828,7 @@
       <c r="B4" s="3">
         <v>28</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>42064</v>
       </c>
       <c r="D4" s="3"/>
@@ -933,7 +871,7 @@
       <c r="B5" s="3">
         <v>31</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>42095</v>
       </c>
       <c r="D5" s="3"/>
@@ -976,7 +914,7 @@
       <c r="B6" s="3">
         <v>30</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>42125</v>
       </c>
       <c r="D6" s="3"/>
@@ -1019,7 +957,7 @@
       <c r="B7" s="3">
         <v>31</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>42156</v>
       </c>
       <c r="D7" s="3"/>
@@ -1062,7 +1000,7 @@
       <c r="B8" s="3">
         <v>30</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>42186</v>
       </c>
       <c r="D8" s="3"/>
@@ -1105,7 +1043,7 @@
       <c r="B9" s="3">
         <v>31</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="9">
         <v>42217</v>
       </c>
       <c r="D9" s="3"/>
@@ -1148,7 +1086,7 @@
       <c r="B10" s="3">
         <v>31</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="9">
         <v>42248</v>
       </c>
       <c r="D10" s="3"/>
@@ -1191,7 +1129,7 @@
       <c r="B11" s="3">
         <v>30</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="9">
         <v>42278</v>
       </c>
       <c r="D11" s="3"/>
@@ -1234,7 +1172,7 @@
       <c r="B12" s="3">
         <v>31</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="9">
         <v>42309</v>
       </c>
       <c r="D12" s="3"/>
@@ -1277,7 +1215,7 @@
       <c r="B13" s="3">
         <v>30</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="9">
         <v>42339</v>
       </c>
       <c r="D13" s="3"/>
@@ -1320,7 +1258,7 @@
       <c r="B14" s="3">
         <v>31</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="9">
         <v>42370</v>
       </c>
       <c r="D14" s="3"/>
@@ -1363,10 +1301,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1378,11 +1316,11 @@
     <col min="11" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -1410,83 +1348,69 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="19">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="13">
         <v>2622</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="14">
         <v>42036</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="19">
-        <v>888.49</v>
-      </c>
-      <c r="F2" s="19">
+      <c r="E2" s="13">
+        <v>888.49</v>
+      </c>
+      <c r="F2" s="13">
         <v>788.49</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="13">
         <v>100</v>
       </c>
-      <c r="H2" s="19">
-        <v>0</v>
-      </c>
-      <c r="I2" s="19">
-        <v>0</v>
-      </c>
-      <c r="J2" s="21">
+      <c r="H2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="13">
+        <v>0</v>
+      </c>
+      <c r="J2" s="15">
         <v>9211.51</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="19">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="13">
         <v>2621</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="14">
         <v>42005</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="16">
         <v>10000</v>
       </c>
-      <c r="F3" s="19">
-        <v>0</v>
-      </c>
-      <c r="G3" s="19">
-        <v>0</v>
-      </c>
-      <c r="H3" s="19">
-        <v>0</v>
-      </c>
-      <c r="I3" s="19">
-        <v>0</v>
-      </c>
-      <c r="J3" s="22">
+      <c r="F3" s="13">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0</v>
+      </c>
+      <c r="J3" s="16">
         <v>10000</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/54-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-ONTIME-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/54-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-ONTIME-Makerepayment1.xlsx
@@ -119,7 +119,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -140,6 +140,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -180,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -235,6 +240,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,7 +739,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -828,7 +836,7 @@
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="P2" s="3"/>
+      <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -843,7 +851,7 @@
       <c r="D3" s="11">
         <v>42036</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="3">
         <v>788.49</v>
       </c>
@@ -974,13 +982,13 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3">
-        <v>811.77</v>
-      </c>
-      <c r="G6" s="9">
-        <v>6807</v>
+        <v>812.3</v>
+      </c>
+      <c r="G6" s="7">
+        <v>6806.47</v>
       </c>
       <c r="H6" s="3">
-        <v>76.72</v>
+        <v>76.19</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
@@ -1017,13 +1025,13 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3">
-        <v>820.42</v>
+        <v>820.43</v>
       </c>
       <c r="G7" s="7">
-        <v>5986.58</v>
+        <v>5986.04</v>
       </c>
       <c r="H7" s="3">
-        <v>68.069999999999993</v>
+        <v>68.06</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
@@ -1060,13 +1068,13 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3">
-        <v>828.62</v>
+        <v>828.63</v>
       </c>
       <c r="G8" s="7">
-        <v>5157.96</v>
+        <v>5157.41</v>
       </c>
       <c r="H8" s="3">
-        <v>59.87</v>
+        <v>59.86</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -1103,13 +1111,13 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3">
-        <v>836.91</v>
+        <v>836.92</v>
       </c>
       <c r="G9" s="7">
-        <v>4321.05</v>
+        <v>4320.49</v>
       </c>
       <c r="H9" s="3">
-        <v>51.58</v>
+        <v>51.57</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -1146,13 +1154,13 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3">
-        <v>845.28</v>
+        <v>845.29</v>
       </c>
       <c r="G10" s="7">
-        <v>3475.77</v>
+        <v>3475.2</v>
       </c>
       <c r="H10" s="3">
-        <v>43.21</v>
+        <v>43.2</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -1189,13 +1197,13 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
-        <v>853.73</v>
+        <v>853.74</v>
       </c>
       <c r="G11" s="7">
-        <v>2622.04</v>
+        <v>2621.46</v>
       </c>
       <c r="H11" s="3">
-        <v>34.76</v>
+        <v>34.75</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
@@ -1232,13 +1240,13 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3">
-        <v>862.27</v>
+        <v>862.28</v>
       </c>
       <c r="G12" s="7">
-        <v>1759.77</v>
+        <v>1759.18</v>
       </c>
       <c r="H12" s="3">
-        <v>26.22</v>
+        <v>26.21</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -1275,13 +1283,13 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3">
-        <v>870.89</v>
+        <v>870.9</v>
       </c>
       <c r="G13" s="3">
-        <v>888.88</v>
+        <v>888.28</v>
       </c>
       <c r="H13" s="3">
-        <v>17.600000000000001</v>
+        <v>17.59</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>
@@ -1318,13 +1326,13 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3">
-        <v>888.88</v>
+        <v>888.28</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>8.89</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1333,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
-        <v>897.77</v>
+        <v>897.16</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1345,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
-        <v>897.77</v>
+        <v>897.16</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Client/54-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-ONTIME-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/54-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-ONTIME-Makerepayment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -118,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -227,6 +232,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -274,7 +282,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,9 +315,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,6 +367,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -520,7 +562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -674,10 +716,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -694,12 +736,13 @@
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
@@ -739,17 +782,18 @@
       <c r="M1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="10"/>
+      <c r="O1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="9">
@@ -775,8 +819,9 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -814,14 +859,15 @@
       <c r="M3" s="3">
         <v>0</v>
       </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N3" s="3"/>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -857,14 +903,15 @@
       <c r="M4" s="3">
         <v>0</v>
       </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N4" s="3"/>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -900,14 +947,15 @@
       <c r="M5" s="3">
         <v>0</v>
       </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N5" s="3"/>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -943,14 +991,15 @@
       <c r="M6" s="3">
         <v>0</v>
       </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N6" s="3"/>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -986,14 +1035,15 @@
       <c r="M7" s="3">
         <v>0</v>
       </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N7" s="3"/>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1029,14 +1079,15 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1072,14 +1123,15 @@
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1115,14 +1167,15 @@
       <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1158,14 +1211,15 @@
       <c r="M11" s="3">
         <v>0</v>
       </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1201,14 +1255,15 @@
       <c r="M12" s="3">
         <v>0</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1244,14 +1299,15 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N13" s="3"/>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1287,10 +1343,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="N14" s="3"/>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>897.16</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Client/54-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-ONTIME-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/54-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-1-ONTIME-Makerepayment1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -123,7 +118,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -282,7 +277,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -315,26 +310,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -367,23 +345,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -598,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -718,7 +679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
